--- a/dist/assets/data/priming.xlsx
+++ b/dist/assets/data/priming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devlan/Repos/research/data-forensics/dist/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5B8CBF-29A5-4144-95F1-93AEFFAF4D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5301351C-7F83-E047-BE3A-0A773C4FB6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CC-Helping" sheetId="1" r:id="rId1"/>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">TELEPHONE </t>
   </si>
   <si>
-    <t>DL_Cond</t>
+    <t>CashOrCredit_Ferret</t>
   </si>
 </sst>
 </file>
@@ -2477,13 +2477,14 @@
   <dimension ref="A1:AI95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A95"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
     <col min="3" max="9" width="9.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1640625" style="1"/>
     <col min="11" max="11" width="9.1640625" style="1" customWidth="1"/>
@@ -2605,9 +2606,9 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <f>IF(ISODD(B2),1,2)</f>
-        <v>1</v>
+      <c r="A2" s="1" t="str">
+        <f>IF(ISODD(B2),"credit_card", "cash")</f>
+        <v>credit_card</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -2713,9 +2714,9 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <f t="shared" ref="A3:A66" si="0">IF(ISODD(B3),1,2)</f>
-        <v>2</v>
+      <c r="A3" s="1" t="str">
+        <f t="shared" ref="A3:A66" si="0">IF(ISODD(B3),"credit_card", "cash")</f>
+        <v>cash</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2821,9 +2822,9 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -2929,9 +2930,9 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -3037,9 +3038,9 @@
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -3145,9 +3146,9 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -3253,9 +3254,9 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -3361,9 +3362,9 @@
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -3469,9 +3470,9 @@
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -3577,9 +3578,9 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
@@ -3685,9 +3686,9 @@
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -3793,9 +3794,9 @@
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -3901,9 +3902,9 @@
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
@@ -4009,9 +4010,9 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -4117,9 +4118,9 @@
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
@@ -4225,9 +4226,9 @@
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
@@ -4333,9 +4334,9 @@
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
@@ -4441,9 +4442,9 @@
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -4549,9 +4550,9 @@
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -4657,9 +4658,9 @@
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -4765,9 +4766,9 @@
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B22" s="1">
         <v>4</v>
@@ -4873,9 +4874,9 @@
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
@@ -4981,9 +4982,9 @@
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B24" s="1">
         <v>4</v>
@@ -5089,9 +5090,9 @@
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B25" s="1">
         <v>4</v>
@@ -5197,9 +5198,9 @@
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -5305,9 +5306,9 @@
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B27" s="1">
         <v>3</v>
@@ -5413,9 +5414,9 @@
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B28" s="1">
         <v>4</v>
@@ -5521,9 +5522,9 @@
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -5629,9 +5630,9 @@
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -5737,9 +5738,9 @@
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
@@ -5845,9 +5846,9 @@
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -5953,9 +5954,9 @@
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
@@ -6061,9 +6062,9 @@
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="A34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B34" s="1">
         <v>4</v>
@@ -6169,9 +6170,9 @@
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="A35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B35" s="1">
         <v>3</v>
@@ -6277,9 +6278,9 @@
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="A36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
@@ -6385,9 +6386,9 @@
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="A37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B37" s="1">
         <v>3</v>
@@ -6493,9 +6494,9 @@
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="A38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B38" s="1">
         <v>2</v>
@@ -6601,9 +6602,9 @@
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="A39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B39" s="1">
         <v>2</v>
@@ -6709,9 +6710,9 @@
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="A40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B40" s="1">
         <v>2</v>
@@ -6817,9 +6818,9 @@
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="A41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
@@ -6925,9 +6926,9 @@
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="A42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -7033,9 +7034,9 @@
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="A43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
@@ -7141,9 +7142,9 @@
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="A44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B44" s="1">
         <v>4</v>
@@ -7249,9 +7250,9 @@
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="A45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B45" s="1">
         <v>1</v>
@@ -7357,9 +7358,9 @@
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="A46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B46" s="1">
         <v>3</v>
@@ -7465,9 +7466,9 @@
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="A47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B47" s="1">
         <v>4</v>
@@ -7573,9 +7574,9 @@
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="A48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
@@ -7681,9 +7682,9 @@
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="A49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B49" s="1">
         <v>2</v>
@@ -7789,9 +7790,9 @@
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="A50" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B50" s="1">
         <v>4</v>
@@ -7897,9 +7898,9 @@
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="A51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B51" s="1">
         <v>2</v>
@@ -8005,9 +8006,9 @@
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="A52" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B52" s="1">
         <v>4</v>
@@ -8113,9 +8114,9 @@
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="A53" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B53" s="1">
         <v>2</v>
@@ -8221,9 +8222,9 @@
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="A54" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B54" s="1">
         <v>4</v>
@@ -8329,9 +8330,9 @@
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="A55" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B55" s="1">
         <v>3</v>
@@ -8437,9 +8438,9 @@
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+      <c r="A56" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B56" s="1">
         <v>1</v>
@@ -8545,9 +8546,9 @@
       </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+      <c r="A57" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B57" s="1">
         <v>3</v>
@@ -8653,9 +8654,9 @@
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="A58" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B58" s="1">
         <v>3</v>
@@ -8761,9 +8762,9 @@
       </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="A59" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B59" s="1">
         <v>4</v>
@@ -8869,9 +8870,9 @@
       </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+      <c r="A60" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B60" s="1">
         <v>4</v>
@@ -8977,9 +8978,9 @@
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+      <c r="A61" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
@@ -9085,9 +9086,9 @@
       </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+      <c r="A62" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B62" s="1">
         <v>2</v>
@@ -9193,9 +9194,9 @@
       </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+      <c r="A63" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B63" s="1">
         <v>2</v>
@@ -9301,9 +9302,9 @@
       </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+      <c r="A64" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B64" s="1">
         <v>3</v>
@@ -9409,9 +9410,9 @@
       </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+      <c r="A65" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B65" s="1">
         <v>3</v>
@@ -9517,9 +9518,9 @@
       </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+      <c r="A66" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B66" s="1">
         <v>3</v>
@@ -9625,9 +9626,9 @@
       </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <f t="shared" ref="A67:A95" si="1">IF(ISODD(B67),1,2)</f>
-        <v>2</v>
+      <c r="A67" s="1" t="str">
+        <f t="shared" ref="A67:A95" si="1">IF(ISODD(B67),"credit_card", "cash")</f>
+        <v>cash</v>
       </c>
       <c r="B67" s="1">
         <v>2</v>
@@ -9733,9 +9734,9 @@
       </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+      <c r="A68" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B68" s="1">
         <v>1</v>
@@ -9841,9 +9842,9 @@
       </c>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+      <c r="A69" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B69" s="1">
         <v>4</v>
@@ -9949,9 +9950,9 @@
       </c>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+      <c r="A70" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B70" s="1">
         <v>1</v>
@@ -10057,9 +10058,9 @@
       </c>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+      <c r="A71" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B71" s="1">
         <v>3</v>
@@ -10165,9 +10166,9 @@
       </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+      <c r="A72" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B72" s="1">
         <v>3</v>
@@ -10273,9 +10274,9 @@
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+      <c r="A73" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B73" s="1">
         <v>1</v>
@@ -10381,9 +10382,9 @@
       </c>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+      <c r="A74" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B74" s="1">
         <v>4</v>
@@ -10489,9 +10490,9 @@
       </c>
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+      <c r="A75" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B75" s="1">
         <v>1</v>
@@ -10597,9 +10598,9 @@
       </c>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+      <c r="A76" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B76" s="1">
         <v>2</v>
@@ -10705,9 +10706,9 @@
       </c>
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+      <c r="A77" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B77" s="1">
         <v>1</v>
@@ -10813,9 +10814,9 @@
       </c>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+      <c r="A78" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -10921,9 +10922,9 @@
       </c>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+      <c r="A79" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B79" s="1">
         <v>2</v>
@@ -11029,9 +11030,9 @@
       </c>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+      <c r="A80" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B80" s="1">
         <v>2</v>
@@ -11137,9 +11138,9 @@
       </c>
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+      <c r="A81" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B81" s="1">
         <v>1</v>
@@ -11245,9 +11246,9 @@
       </c>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+      <c r="A82" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B82" s="1">
         <v>2</v>
@@ -11353,9 +11354,9 @@
       </c>
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+      <c r="A83" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B83" s="1">
         <v>3</v>
@@ -11461,9 +11462,9 @@
       </c>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+      <c r="A84" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B84" s="1">
         <v>3</v>
@@ -11569,9 +11570,9 @@
       </c>
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+      <c r="A85" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B85" s="1">
         <v>3</v>
@@ -11677,9 +11678,9 @@
       </c>
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+      <c r="A86" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B86" s="1">
         <v>3</v>
@@ -11785,9 +11786,9 @@
       </c>
     </row>
     <row r="87" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+      <c r="A87" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B87" s="1">
         <v>4</v>
@@ -11893,9 +11894,9 @@
       </c>
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+      <c r="A88" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B88" s="1">
         <v>3</v>
@@ -12001,9 +12002,9 @@
       </c>
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+      <c r="A89" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -12109,9 +12110,9 @@
       </c>
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+      <c r="A90" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B90" s="1">
         <v>4</v>
@@ -12217,9 +12218,9 @@
       </c>
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+      <c r="A91" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -12325,9 +12326,9 @@
       </c>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+      <c r="A92" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -12433,9 +12434,9 @@
       </c>
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+      <c r="A93" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B93" s="1">
         <v>2</v>
@@ -12541,9 +12542,9 @@
       </c>
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+      <c r="A94" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>credit_card</v>
       </c>
       <c r="B94" s="1">
         <v>1</v>
@@ -12649,9 +12650,9 @@
       </c>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+      <c r="A95" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>cash</v>
       </c>
       <c r="B95" s="1">
         <v>2</v>
